--- a/others/Investment/THS/AutoTrade/data/ETF和组合_今天调仓.xlsx
+++ b/others/Investment/THS/AutoTrade/data/ETF和组合_今天调仓.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="股票组合最新调仓" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ETF最新调仓" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,8 +18,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +59,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +524,7 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="3" t="n">
         <v>45721.41875</v>
       </c>
       <c r="J2" t="inlineStr">
@@ -564,7 +566,7 @@
       <c r="H3" t="n">
         <v>100</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="3" t="n">
         <v>45721.46388888889</v>
       </c>
       <c r="J3" t="inlineStr">
@@ -606,7 +608,7 @@
       <c r="H4" t="n">
         <v>100</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="3" t="n">
         <v>45722.39305555556</v>
       </c>
       <c r="J4" t="inlineStr">
@@ -648,7 +650,7 @@
       <c r="H5" t="n">
         <v>75.25</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="3" t="n">
         <v>45722.43611111111</v>
       </c>
       <c r="J5" t="inlineStr">
@@ -690,7 +692,7 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="3" t="n">
         <v>45722.44861111111</v>
       </c>
       <c r="J6" t="inlineStr">
@@ -732,7 +734,7 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="3" t="n">
         <v>45722.59375</v>
       </c>
       <c r="J7" t="inlineStr">
@@ -774,7 +776,7 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="3" t="n">
         <v>45723.41597222222</v>
       </c>
       <c r="J8" t="inlineStr">
@@ -816,7 +818,7 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="3" t="n">
         <v>45723.44236111111</v>
       </c>
       <c r="J9" t="inlineStr">
@@ -858,7 +860,7 @@
       <c r="H10" t="n">
         <v>20</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="3" t="n">
         <v>45723.59097222222</v>
       </c>
       <c r="J10" t="inlineStr">
@@ -900,7 +902,7 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="3" t="n">
         <v>45723.60694444444</v>
       </c>
       <c r="J11" t="inlineStr">
@@ -942,7 +944,7 @@
       <c r="H12" t="n">
         <v>100</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="3" t="n">
         <v>45726.39444444444</v>
       </c>
       <c r="J12" t="inlineStr">
@@ -984,7 +986,7 @@
       <c r="H13" t="n">
         <v>10</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="3" t="n">
         <v>45727.44166666667</v>
       </c>
       <c r="J13" t="inlineStr">
@@ -1026,7 +1028,7 @@
       <c r="H14" t="n">
         <v>5</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="3" t="n">
         <v>45727.44583333333</v>
       </c>
       <c r="J14" t="inlineStr">
@@ -1068,7 +1070,7 @@
       <c r="H15" t="n">
         <v>20</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="3" t="n">
         <v>45727.55625</v>
       </c>
       <c r="J15" t="inlineStr">
@@ -1110,7 +1112,7 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="3" t="n">
         <v>45727.59375</v>
       </c>
       <c r="J16" t="inlineStr">
@@ -1152,7 +1154,7 @@
       <c r="H17" t="n">
         <v>10</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="3" t="n">
         <v>45728.41736111111</v>
       </c>
       <c r="J17" t="inlineStr">
@@ -1194,7 +1196,7 @@
       <c r="H18" t="n">
         <v>20</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="3" t="n">
         <v>45728.45555555556</v>
       </c>
       <c r="J18" t="inlineStr">
@@ -1236,7 +1238,7 @@
       <c r="H19" t="n">
         <v>5</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="3" t="n">
         <v>45728.60069444445</v>
       </c>
       <c r="J19" t="inlineStr">
@@ -1278,7 +1280,7 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="I20" s="3" t="n">
         <v>45728.61527777778</v>
       </c>
       <c r="J20" t="inlineStr">
@@ -1293,10 +1295,8 @@
           <t>每天进步一点点</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>600126</t>
-        </is>
+      <c r="B21" t="n">
+        <v>600126</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1322,12 +1322,215 @@
       <c r="H21" t="n">
         <v>25</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="I21" s="3" t="n">
         <v>45728.61736111111</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>每天进步一点点_600126_买入_25.00_144900</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>每天进步一点点</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>600126</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>杭钢股份</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>14.63</v>
+      </c>
+      <c r="G22" t="n">
+        <v>26.17</v>
+      </c>
+      <c r="H22" t="n">
+        <v>99.89</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>45729.62222222222</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>每天进步一点点_600126_买入_99.89_145600</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>组合名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>当前比例%</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>strict_id</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>热点追击ETF</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>香港证券ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1.629</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>45729.40833333333</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>热点追击ETF_513090_买入_100.00_094800</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>热点追击ETF</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国防ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G3" t="n">
+        <v>99.83</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>45729.40833333333</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>热点追击ETF_512670_卖出_0.00_094800</t>
         </is>
       </c>
     </row>

--- a/others/Investment/THS/AutoTrade/data/ETF和组合_今天调仓.xlsx
+++ b/others/Investment/THS/AutoTrade/data/ETF和组合_今天调仓.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ETF最新调仓" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="股票组合最新调仓" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,104 +492,106 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>热点追击ETF</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513090</v>
+        <v>603216</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>香港证券ETF</t>
+          <t>梦天家居</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>沪深A股</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.629</v>
+        <v>12.44</v>
       </c>
       <c r="G2" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
-        <v>100</v>
-      </c>
       <c r="I2" s="2" t="n">
-        <v>45729.40833333333</v>
+        <v>45733.41944444444</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>热点追击ETF_513090_买入_100.00_094800</t>
+          <t>超短稳定复利_603216_卖出_0.00_100400</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>热点追击ETF</t>
+          <t>超短稳定复利</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512670</v>
+        <v>603075</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国防ETF</t>
+          <t>热威股份</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>沪深A股</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.74</v>
+        <v>20.54</v>
       </c>
       <c r="G3" t="n">
-        <v>99.83</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>45729.40833333333</v>
+        <v>45733.42152777778</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>热点追击ETF_512670_卖出_0.00_094800</t>
+          <t>超短稳定复利_603075_买入_20.00_100700</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ETF灵蛇智投</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>512730</v>
+          <t>每天进步一点点</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>600126</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中证银行ETF</t>
+          <t>杭钢股份</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>沪深A股</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -598,190 +600,20 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>12.35</v>
       </c>
       <c r="G4" t="n">
-        <v>39.83</v>
+        <v>100</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>45730.40416666667</v>
+        <v>45733.61458333334</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>ETF灵蛇智投_512730_卖出_0.00_094200</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ETF灵蛇智投</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>513700</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>香港医药ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0.482</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>39.81</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>45730.40555555555</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>ETF灵蛇智投_513700_买入_39.81_094400</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>龙头驾到ETF</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>513090</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>香港证券ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1.699</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>45730.46875</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>龙头驾到ETF_513090_买入_100.00_111500</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>龙头驾到ETF</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>513070</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>港股消费ETF易方达</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1.419</v>
-      </c>
-      <c r="G7" t="n">
-        <v>100</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>45730.46875</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>龙头驾到ETF_513070_卖出_0.00_111500</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>热点追击ETF</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>513090</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>香港证券ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="G8" t="n">
-        <v>100</v>
-      </c>
-      <c r="H8" t="n">
-        <v>60</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>45730.475</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>热点追击ETF_513090_卖出_60.00_112400</t>
+          <t>每天进步一点点_600126_卖出_0.00_144500</t>
         </is>
       </c>
     </row>

--- a/others/Investment/THS/AutoTrade/data/ETF和组合_今天调仓.xlsx
+++ b/others/Investment/THS/AutoTrade/data/ETF和组合_今天调仓.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="股票组合最新调仓" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ETF最新调仓" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,8 +18,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +59,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -522,7 +524,7 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="3" t="n">
         <v>45733.41944444444</v>
       </c>
       <c r="J2" t="inlineStr">
@@ -564,7 +566,7 @@
       <c r="H3" t="n">
         <v>20</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="3" t="n">
         <v>45733.42152777778</v>
       </c>
       <c r="J3" t="inlineStr">
@@ -608,12 +610,259 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="3" t="n">
         <v>45733.61458333334</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>每天进步一点点_600126_卖出_0.00_144500</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>组合名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>当前比例%</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>strict_id</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>龙头驾到ETF</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588730</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>科创人工智能ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1.194</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>45734.40347222222</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>龙头驾到ETF_588730_买入_100.00_094100</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>龙头驾到ETF</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>香港证券ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1.681</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>45734.40347222222</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>龙头驾到ETF_513090_卖出_0.00_094100</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ETF灵蛇智投</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159887</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银行ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1.243</v>
+      </c>
+      <c r="G4" t="n">
+        <v>59.24</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>45734.61111111111</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ETF灵蛇智投_159887_卖出_0.00_144000</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ETF灵蛇智投</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>有色ETF基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1.121</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>45734.61180555556</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ETF灵蛇智投_159880_买入_59.30_144100</t>
         </is>
       </c>
     </row>

--- a/others/Investment/THS/AutoTrade/data/ETF和组合_今天调仓.xlsx
+++ b/others/Investment/THS/AutoTrade/data/ETF和组合_今天调仓.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,12 +497,14 @@
           <t>超短稳定复利</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>603216</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>600169</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>梦天家居</t>
+          <t>太原重工</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -512,24 +514,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12.44</v>
+        <v>2.58</v>
       </c>
       <c r="G2" t="n">
-        <v>20.35</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>45733.41944444444</v>
+        <v>45735.46736111111</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>超短稳定复利_603216_卖出_0.00_100400</t>
+          <t>超短稳定复利_600169_买入_10.00_111300</t>
         </is>
       </c>
     </row>
@@ -539,8 +541,10 @@
           <t>超短稳定复利</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>603075</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>603075</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -554,68 +558,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>20.54</v>
+        <v>20.76</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>19.96</v>
       </c>
       <c r="H3" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>45733.42152777778</v>
+        <v>45735.58333333334</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>超短稳定复利_603075_买入_20.00_100700</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>每天进步一点点</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>600126</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>杭钢股份</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="G4" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>45733.61458333334</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>每天进步一点点_600126_卖出_0.00_144500</t>
+          <t>超短稳定复利_603075_卖出_5.00_140000</t>
         </is>
       </c>
     </row>
@@ -630,7 +590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,17 +653,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>龙头驾到ETF</t>
+          <t>热点追击ETF</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>588730</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>科创人工智能ETF</t>
+          <t>香港证券ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -717,152 +677,20 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.194</v>
+        <v>1.683</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>60.08</v>
       </c>
       <c r="H2" t="n">
         <v>100</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>45734.40347222222</v>
+        <v>45735.40763888889</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>龙头驾到ETF_588730_买入_100.00_094100</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>龙头驾到ETF</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>513090</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>香港证券ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1.681</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>45734.40347222222</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>龙头驾到ETF_513090_卖出_0.00_094100</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ETF灵蛇智投</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>159887</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银行ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1.243</v>
-      </c>
-      <c r="G4" t="n">
-        <v>59.24</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>45734.61111111111</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>ETF灵蛇智投_159887_卖出_0.00_144000</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ETF灵蛇智投</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>159880</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>有色ETF基金</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1.121</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>59.3</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>45734.61180555556</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>ETF灵蛇智投_159880_买入_59.30_144100</t>
+          <t>热点追击ETF_513090_买入_100.00_094700</t>
         </is>
       </c>
     </row>

--- a/others/Investment/THS/AutoTrade/data/ETF和组合_今天调仓.xlsx
+++ b/others/Investment/THS/AutoTrade/data/ETF和组合_今天调仓.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,12 +499,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>600169</t>
+          <t>600099</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太原重工</t>
+          <t>林海股份</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -514,24 +514,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.58</v>
+        <v>10.72</v>
       </c>
       <c r="G2" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
       <c r="I2" s="3" t="n">
-        <v>45735.46736111111</v>
+        <v>45736.41388888889</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>超短稳定复利_600169_买入_10.00_111300</t>
+          <t>超短稳定复利_600099_卖出_0.00_095600</t>
         </is>
       </c>
     </row>
@@ -562,20 +562,108 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>20.76</v>
+        <v>20.66</v>
       </c>
       <c r="G3" t="n">
-        <v>19.96</v>
+        <v>4.93</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>45736.41458333333</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>超短稳定复利_603075_卖出_0.00_095700</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>605069</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>正和生态</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>20</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>45736.43680555555</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>超短稳定复利_605069_买入_20.00_102900</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>600169</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太原重工</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="n">
-        <v>45735.58333333334</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>超短稳定复利_603075_卖出_5.00_140000</t>
+      <c r="I5" s="3" t="n">
+        <v>45736.45</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>超短稳定复利_600169_卖出_5.00_104800</t>
         </is>
       </c>
     </row>

--- a/others/Investment/THS/AutoTrade/data/ETF和组合_今天调仓.xlsx
+++ b/others/Investment/THS/AutoTrade/data/ETF和组合_今天调仓.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="股票组合最新调仓" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ETF最新调仓" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="股票组合最新调仓" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ETF最新调仓" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,12 +499,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>600099</t>
+          <t>600169</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>林海股份</t>
+          <t>太原重工</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -518,20 +518,20 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10.72</v>
+        <v>2.76</v>
       </c>
       <c r="G2" t="n">
-        <v>5.31</v>
+        <v>5.19</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>45736.41388888889</v>
+        <v>45737.45277777778</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>超短稳定复利_600099_卖出_0.00_095600</t>
+          <t>超短稳定复利_600169_卖出_0.00_105200</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>603075</t>
+          <t>002445</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>热威股份</t>
+          <t>中南文化</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -558,112 +558,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>20.66</v>
+        <v>2.52</v>
       </c>
       <c r="G3" t="n">
-        <v>4.93</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>45736.41458333333</v>
+        <v>45737.60486111111</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>超短稳定复利_603075_卖出_0.00_095700</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>605069</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>正和生态</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>20</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>45736.43680555555</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>超短稳定复利_605069_买入_20.00_102900</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>超短稳定复利</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>600169</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>太原重工</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="G5" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>45736.45</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>超短稳定复利_600169_卖出_5.00_104800</t>
+          <t>超短稳定复利_002445_买入_20.00_143100</t>
         </is>
       </c>
     </row>
@@ -678,7 +590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,24 +673,68 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.683</v>
+        <v>1.653</v>
       </c>
       <c r="G2" t="n">
-        <v>60.08</v>
+        <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>45735.40763888889</v>
+        <v>45737.43402777778</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>热点追击ETF_513090_买入_100.00_094700</t>
+          <t>热点追击ETF_513090_卖出_40.00_102500</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>热点追击ETF</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>香港证券ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1.638</v>
+      </c>
+      <c r="G3" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>45737.45486111111</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>热点追击ETF_513090_卖出_0.00_105500</t>
         </is>
       </c>
     </row>

--- a/others/Investment/THS/AutoTrade/data/ETF和组合_今天调仓.xlsx
+++ b/others/Investment/THS/AutoTrade/data/ETF和组合_今天调仓.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,17 +494,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>超短稳定复利</t>
+          <t>中线龙头</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>600169</t>
+          <t>000422</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>太原重工</t>
+          <t>湖北宜化</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -514,24 +514,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.76</v>
+        <v>14.07</v>
       </c>
       <c r="G2" t="n">
-        <v>5.19</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75.81999999999999</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>45737.45277777778</v>
+        <v>45740.40972222222</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>超短稳定复利_600169_卖出_0.00_105200</t>
+          <t>中线龙头_000422_买入_75.82_095000</t>
         </is>
       </c>
     </row>
@@ -558,24 +558,112 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G3" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>45740.45972222222</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>超短稳定复利_002445_卖出_10.00_110200</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>605069</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>正和生态</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21.23</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>45740.59166666667</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>超短稳定复利_605069_卖出_10.00_141200</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超短稳定复利</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>600169</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太原重工</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>买入</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F5" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H5" t="n">
         <v>20</v>
       </c>
-      <c r="I3" s="3" t="n">
-        <v>45737.60486111111</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>超短稳定复利_002445_买入_20.00_143100</t>
+      <c r="I5" s="3" t="n">
+        <v>45740.59791666667</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>超短稳定复利_600169_买入_20.00_142100</t>
         </is>
       </c>
     </row>
@@ -658,12 +746,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>513090</t>
+          <t>512690</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>香港证券ETF</t>
+          <t>酒ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -673,24 +761,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.653</v>
+        <v>0.618</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>45737.43402777778</v>
+        <v>45740.39861111111</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>热点追击ETF_513090_卖出_40.00_102500</t>
+          <t>热点追击ETF_512690_买入_30.00_093400</t>
         </is>
       </c>
     </row>
@@ -702,12 +790,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>513090</t>
+          <t>561120</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>香港证券ETF</t>
+          <t>家电ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -717,24 +805,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.638</v>
+        <v>1.268</v>
       </c>
       <c r="G3" t="n">
-        <v>39.8</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>45737.45486111111</v>
+        <v>45740.39861111111</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>热点追击ETF_513090_卖出_0.00_105500</t>
+          <t>热点追击ETF_561120_买入_20.00_093400</t>
         </is>
       </c>
     </row>
